--- a/biology/Histoire de la zoologie et de la botanique/Anna_Isabel_Mulford/Anna_Isabel_Mulford.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anna_Isabel_Mulford/Anna_Isabel_Mulford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Isabel Mulford (1848 - 16 juin 1943), est une botaniste et une enseignante américaine.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Anna Mulford est née à East Orange N.J[1]. et obtient un A.B., A.M. au Vassar College en 1886. Elle s'inscrit à la Shaw School of Botany de l'université de Washington et, en 1895, elle est la première étudiante à obtenir un doctorat (un membre de la faculté l'avait fait trois ans auparavant)[1]. La thèse de doctorat de Mulford décrit ses recherches sur les agaves aux États-Unis. Au cours de ses études, elle découvre plusieurs nouvelles espèces et, par la suite, certaines d'entre elles portent son nom[2],[3].
-Carrière
-Mulford découvre l'Astragalus mulfordiae, une espèce nommée en son honneur comme l'astragale d'Anna Mulford[2].
-Elle enseigne à la fois à la McKinley High School (1898) et à la St. Louis High School[2].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna Mulford est née à East Orange N.J. et obtient un A.B., A.M. au Vassar College en 1886. Elle s'inscrit à la Shaw School of Botany de l'université de Washington et, en 1895, elle est la première étudiante à obtenir un doctorat (un membre de la faculté l'avait fait trois ans auparavant). La thèse de doctorat de Mulford décrit ses recherches sur les agaves aux États-Unis. Au cours de ses études, elle découvre plusieurs nouvelles espèces et, par la suite, certaines d'entre elles portent son nom,.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mulford découvre l'Astragalus mulfordiae, une espèce nommée en son honneur comme l'astragale d'Anna Mulford.
+Elle enseigne à la fois à la McKinley High School (1898) et à la St. Louis High School.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anna_Isabel_Mulford</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anna_Isabel_Mulford</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres écrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Agaves of the United States - thèse de doctorat d'Anna Mulford, publiée par le Missouri Botanical Garden en 1896.</t>
         </is>
